--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.829097222224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>7660</v>
+      </c>
+      <c r="D3">
+        <v>3671</v>
+      </c>
+      <c r="E3">
+        <v>193</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.881828703707</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>7991</v>
+      </c>
+      <c r="D4">
+        <v>3681</v>
+      </c>
+      <c r="E4">
+        <v>194</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.016458333332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>5933</v>
+      </c>
+      <c r="D5">
+        <v>3076</v>
+      </c>
+      <c r="E5">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42602.584120370368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>7351</v>
+      </c>
+      <c r="D6">
+        <v>4046</v>
+      </c>
+      <c r="E6">
+        <v>246</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +651,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42604.891469907408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2011</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42606.8828587963</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>4663</v>
+      </c>
+      <c r="H3">
+        <v>2944</v>
+      </c>
+      <c r="I3">
+        <v>164</v>
+      </c>
+      <c r="J3">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42607.891712962963</v>
+      </c>
+      <c r="B4">
+        <v>-38</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>19530</v>
+      </c>
+      <c r="H4">
+        <v>16393</v>
+      </c>
+      <c r="I4">
+        <v>810</v>
+      </c>
+      <c r="J4">
+        <v>125</v>
+      </c>
+      <c r="K4">
+        <v>214</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42608.901689814818</v>
+      </c>
+      <c r="B5">
+        <v>-24</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>24909</v>
+      </c>
+      <c r="H5">
+        <v>22752</v>
+      </c>
+      <c r="I5">
+        <v>1090</v>
+      </c>
+      <c r="J5">
+        <v>216</v>
+      </c>
+      <c r="K5">
+        <v>291</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42611.887638888889</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10247</v>
+      </c>
+      <c r="H6">
+        <v>5879</v>
+      </c>
+      <c r="I6">
+        <v>311</v>
+      </c>
+      <c r="J6">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42612.895370370374</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>19474</v>
+      </c>
+      <c r="H7">
+        <v>10212</v>
+      </c>
+      <c r="I7">
+        <v>544</v>
+      </c>
+      <c r="J7">
+        <v>105</v>
+      </c>
+      <c r="K7">
+        <v>97</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42613.76189814815</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>23615</v>
+      </c>
+      <c r="H8">
+        <v>11205</v>
+      </c>
+      <c r="I8">
+        <v>584</v>
+      </c>
+      <c r="J8">
+        <v>145</v>
+      </c>
+      <c r="K8">
+        <v>121</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42613.891898148147</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>12986</v>
+      </c>
+      <c r="H9">
+        <v>10186</v>
+      </c>
+      <c r="I9">
+        <v>536</v>
+      </c>
+      <c r="J9">
+        <v>125</v>
+      </c>
+      <c r="K9">
+        <v>106</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42614.88925925926</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>25883</v>
+      </c>
+      <c r="H10">
+        <v>19911</v>
+      </c>
+      <c r="I10">
+        <v>850</v>
+      </c>
+      <c r="J10">
+        <v>259</v>
+      </c>
+      <c r="K10">
+        <v>157</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42615.887824074074</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>20601</v>
+      </c>
+      <c r="H11">
+        <v>13413</v>
+      </c>
+      <c r="I11">
+        <v>718</v>
+      </c>
+      <c r="J11">
+        <v>181</v>
+      </c>
+      <c r="K11">
+        <v>126</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +892,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42619.894409722219</v>
+      </c>
+      <c r="B12">
+        <v>-10</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>12833</v>
+      </c>
+      <c r="H12">
+        <v>9077</v>
+      </c>
+      <c r="I12">
+        <v>418</v>
+      </c>
+      <c r="J12">
+        <v>116</v>
+      </c>
+      <c r="K12">
+        <v>110</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +936,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42620.891192129631</v>
+      </c>
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>34676</v>
+      </c>
+      <c r="H13">
+        <v>22975</v>
+      </c>
+      <c r="I13">
+        <v>1179</v>
+      </c>
+      <c r="J13">
+        <v>261</v>
+      </c>
+      <c r="K13">
+        <v>216</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42621.89434027778</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>23247</v>
+      </c>
+      <c r="H14">
+        <v>14035</v>
+      </c>
+      <c r="I14">
+        <v>710</v>
+      </c>
+      <c r="J14">
+        <v>144</v>
+      </c>
+      <c r="K14">
+        <v>79</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42622.891469907408</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>21189</v>
+      </c>
+      <c r="H15">
+        <v>11310</v>
+      </c>
+      <c r="I15">
+        <v>577</v>
+      </c>
+      <c r="J15">
+        <v>137</v>
+      </c>
+      <c r="K15">
+        <v>127</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42625.886678240742</v>
+      </c>
+      <c r="B16">
+        <v>-22</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>13423</v>
+      </c>
+      <c r="H16">
+        <v>9531</v>
+      </c>
+      <c r="I16">
+        <v>424</v>
+      </c>
+      <c r="J16">
+        <v>97</v>
+      </c>
+      <c r="K16">
+        <v>93</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
